--- a/테이블/전투/공격/기술 자원 획득 테이블.xlsx
+++ b/테이블/전투/공격/기술 자원 획득 테이블.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\Project TirgerGhostField\기획\테이블\전투\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\Project TirgerGhostField\기획\테이블\전투\공격\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0234FDE2-8848-4064-97CD-87B66726A277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA10A06-9DFF-4D2D-A6C7-73908C7387A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,14 +150,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -175,54 +167,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H5"/>
+  <dimension ref="B1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -518,10 +479,13 @@
     <col min="5" max="5" width="22.625" customWidth="1"/>
     <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,72 +508,72 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="b">
+      <c r="C3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="b">
+      <c r="H3" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="b">
+      <c r="C4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="3" t="b">
+      <c r="H4" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="b">
+      <c r="F5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="b">
+      <c r="H5" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -629,10 +593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C19B3A-9DE6-4959-8646-89E4535BEFF0}">
-  <dimension ref="B1:H1"/>
+  <dimension ref="B1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -645,7 +609,7 @@
     <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="str" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
         <v>기술 공격 Id</v>
@@ -657,22 +621,6 @@
       <c r="D1" t="str" cm="1">
         <f t="array" aca="1" ref="D1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
         <v>획득 자원량</v>
-      </c>
-      <c r="E1" t="str" cm="1">
-        <f t="array" aca="1" ref="E1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
-        <v>속성 없음</v>
-      </c>
-      <c r="F1" t="str" cm="1">
-        <f t="array" aca="1" ref="F1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
-        <v>속성 없음</v>
-      </c>
-      <c r="G1" t="str" cm="1">
-        <f t="array" aca="1" ref="G1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
-        <v>속성 없음</v>
-      </c>
-      <c r="H1" t="str" cm="1">
-        <f t="array" aca="1" ref="H1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
-        <v>속성 없음</v>
       </c>
     </row>
   </sheetData>
